--- a/quizes.xlsx
+++ b/quizes.xlsx
@@ -5,13 +5,448 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ovis" sheetId="1" r:id="rId1"/>
+    <sheet name="Állatos" sheetId="2" r:id="rId2"/>
+    <sheet name="Mudis" sheetId="3" r:id="rId3"/>
+    <sheet name="Próba kvíz" sheetId="4" r:id="rId4"/>
+    <sheet name="Ingyen pontok" sheetId="5" r:id="rId5"/>
+    <sheet name="Becsapós" sheetId="6" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+  <si>
+    <t>Válaszd ki a macskát</t>
+  </si>
+  <si>
+    <t>Kutya</t>
+  </si>
+  <si>
+    <t>Macskka</t>
+  </si>
+  <si>
+    <t>cica</t>
+  </si>
+  <si>
+    <t>macska</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Válaszd ki a kört!</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>kör</t>
+  </si>
+  <si>
+    <t>Milyen állat a macska?</t>
+  </si>
+  <si>
+    <t>Emlős</t>
+  </si>
+  <si>
+    <t>Madár</t>
+  </si>
+  <si>
+    <t>Hüllő</t>
+  </si>
+  <si>
+    <t>Rovar</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Melyik nem magyar kutyafajta?</t>
+  </si>
+  <si>
+    <t>Puli</t>
+  </si>
+  <si>
+    <t>Mudi</t>
+  </si>
+  <si>
+    <t>Pumi</t>
+  </si>
+  <si>
+    <t>Mopsz</t>
+  </si>
+  <si>
+    <t>Hol töltik idejük nagy részét a lajhárok?</t>
+  </si>
+  <si>
+    <t>Vízben</t>
+  </si>
+  <si>
+    <t>Fán</t>
+  </si>
+  <si>
+    <t>Földön</t>
+  </si>
+  <si>
+    <t>Levegőben</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Milyen színűek a zebrák?</t>
+  </si>
+  <si>
+    <t>Fekete alapon fehér csíkosak</t>
+  </si>
+  <si>
+    <t>Fehér alapom fekete csíkosak</t>
+  </si>
+  <si>
+    <t>Melyik a legnagyobb nagymacska?</t>
+  </si>
+  <si>
+    <t>Leopárd</t>
+  </si>
+  <si>
+    <t>Jaguár</t>
+  </si>
+  <si>
+    <t>Oroszlán</t>
+  </si>
+  <si>
+    <t>Tigris</t>
+  </si>
+  <si>
+    <t>Milyen nemzetiség kutyafajtája a mudi?</t>
+  </si>
+  <si>
+    <t>Angol</t>
+  </si>
+  <si>
+    <t>Belga</t>
+  </si>
+  <si>
+    <t>Román</t>
+  </si>
+  <si>
+    <t>Magyar</t>
+  </si>
+  <si>
+    <t>Melyik nem törzskönyvezhető szín a mudiknál</t>
+  </si>
+  <si>
+    <t>fekete</t>
+  </si>
+  <si>
+    <t>zsemle</t>
+  </si>
+  <si>
+    <t>fakó</t>
+  </si>
+  <si>
+    <t>blue-merle</t>
+  </si>
+  <si>
+    <t>Válaszd ki a jó választ!</t>
+  </si>
+  <si>
+    <t>1 + 1 = 3</t>
+  </si>
+  <si>
+    <t>sin(x) / cos(x) = tan(x)</t>
+  </si>
+  <si>
+    <t>Itt minden jó válasz</t>
+  </si>
+  <si>
+    <t>Jó</t>
+  </si>
+  <si>
+    <t>Na de ez is jó?</t>
+  </si>
+  <si>
+    <t>És ez?</t>
+  </si>
+  <si>
+    <t>1, 2, 3</t>
+  </si>
+  <si>
+    <t>sin(x) / cos(x) = ?</t>
+  </si>
+  <si>
+    <t>Jó!</t>
+  </si>
+  <si>
+    <t>tan(x)</t>
+  </si>
+  <si>
+    <t>Macska?</t>
+  </si>
+  <si>
+    <t>Macska!</t>
+  </si>
+  <si>
+    <t>macska!</t>
+  </si>
+  <si>
+    <t>1, 2</t>
+  </si>
+  <si>
+    <t>Ortocentrikus tetraéder bennfoglaló paralellepipedonja?</t>
+  </si>
+  <si>
+    <t>romboid</t>
+  </si>
+  <si>
+    <t>parallelogramma</t>
+  </si>
+  <si>
+    <t>rombusz</t>
+  </si>
+  <si>
+    <t>tetraéder</t>
+  </si>
+  <si>
+    <t>Bíró:</t>
+  </si>
+  <si>
+    <t>1 pont</t>
+  </si>
+  <si>
+    <t>0 pont</t>
+  </si>
+  <si>
+    <t>max pont</t>
+  </si>
+  <si>
+    <t>Melyik hármat választotta? (tipp: az első hármat)</t>
+  </si>
+  <si>
+    <t>Rendben</t>
+  </si>
+  <si>
+    <t>Nagyszerű</t>
+  </si>
+  <si>
+    <t>Rossz döntés</t>
+  </si>
+  <si>
+    <t>Az utolsó hármat kellett volna</t>
+  </si>
+  <si>
+    <t>De miért hármat választott? 1-et válasszon!</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Melyik egy fontos szám?</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>- |</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>|||</t>
+  </si>
+  <si>
+    <t>cipők</t>
+  </si>
+  <si>
+    <t>bootstrap</t>
+  </si>
+  <si>
+    <t>boostrap</t>
+  </si>
+  <si>
+    <t>bootstep</t>
+  </si>
+  <si>
+    <t>bostrep</t>
+  </si>
+  <si>
+    <t>2, 3, 4</t>
+  </si>
+  <si>
+    <t>Mikor?</t>
+  </si>
+  <si>
+    <t>Tegnap</t>
+  </si>
+  <si>
+    <t>Tegnap előtt</t>
+  </si>
+  <si>
+    <t>Holnap</t>
+  </si>
+  <si>
+    <t>Bsc-n</t>
+  </si>
+  <si>
+    <t>Középiskolában</t>
+  </si>
+  <si>
+    <t>Általános iskola 6. osztályban</t>
+  </si>
+  <si>
+    <t>Mennyire fontosak a virtuális függvények?</t>
+  </si>
+  <si>
+    <t>Nem annyira</t>
+  </si>
+  <si>
+    <t>Egy kicsit</t>
+  </si>
+  <si>
+    <t>Nagyon</t>
+  </si>
+  <si>
+    <t>Igazán</t>
+  </si>
+  <si>
+    <t>mint egy falat kenyér</t>
+  </si>
+  <si>
+    <t>anélkül nem is lehet létezni</t>
+  </si>
+  <si>
+    <t>kicsit</t>
+  </si>
+  <si>
+    <t>5, 6</t>
+  </si>
+  <si>
+    <t>A youtube-on vannak</t>
+  </si>
+  <si>
+    <t>videók</t>
+  </si>
+  <si>
+    <t>szöveges dokumentumok</t>
+  </si>
+  <si>
+    <t>könyvek</t>
+  </si>
+  <si>
+    <t>képek</t>
+  </si>
+  <si>
+    <t>a könyvben milyen ábrák vannak?</t>
+  </si>
+  <si>
+    <t>szép ábrák</t>
+  </si>
+  <si>
+    <t>szögletes ábrák</t>
+  </si>
+  <si>
+    <t>színes ábrák</t>
+  </si>
+  <si>
+    <t>valósághű ábrák</t>
+  </si>
+  <si>
+    <t>szürkeárnyalatos ábrák</t>
+  </si>
+  <si>
+    <t>Milyen a program?</t>
+  </si>
+  <si>
+    <t>rövid</t>
+  </si>
+  <si>
+    <t>könnyen érthető</t>
+  </si>
+  <si>
+    <t>jól tagolt</t>
+  </si>
+  <si>
+    <t>izmos</t>
+  </si>
+  <si>
+    <t>rosszul indentált</t>
+  </si>
+  <si>
+    <t>Milyen a bizonyítás?</t>
+  </si>
+  <si>
+    <t>Egyszerű</t>
+  </si>
+  <si>
+    <t>Könnyen látható</t>
+  </si>
+  <si>
+    <t>Triviális</t>
+  </si>
+  <si>
+    <t>magától adódó</t>
+  </si>
+  <si>
+    <t>Hosszadalmas</t>
+  </si>
+  <si>
+    <t>Bonyolult</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4</t>
+  </si>
+  <si>
+    <t>Melyik betű?</t>
+  </si>
+  <si>
+    <t>Az első</t>
+  </si>
+  <si>
+    <t>A szó elején lévő betű</t>
+  </si>
+  <si>
+    <t>A szó első betűje</t>
+  </si>
+  <si>
+    <t>A karakterlánc nulladik pozícióján helyet foglaló karakter</t>
+  </si>
+  <si>
+    <t>Az 15 hosszú, karakter tömbben tárolt, karakterekből álló karakterlánc kezdetétől számolva 0 bájttal, azaz 0 bittel eltolt pozíción lévő karakter ascii kódjához tartozó karakter</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -59,12 +494,616 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>